--- a/температура.xlsx
+++ b/температура.xlsx
@@ -55,8 +55,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -88,90 +89,31 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Регулювання</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> температури</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.213648293963254E-2"/>
-          <c:y val="0.16245370370370371"/>
-          <c:w val="0.90286351706036749"/>
-          <c:h val="0.70841097987751533"/>
+          <c:x val="4.7073502767382189E-2"/>
+          <c:y val="1.9778275284208363E-2"/>
+          <c:w val="0.94440945451289771"/>
+          <c:h val="0.91179691816226149"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="101600" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -891,7 +833,2203 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2F44-498C-A2FA-9914FD0F41D8}"/>
+              <c16:uniqueId val="{00000007-2C85-405E-B17C-06EE0845D918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="101600" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$254</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="254"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-2C85-405E-B17C-06EE0845D918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="101600" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$254</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="254"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2C85-405E-B17C-06EE0845D918}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="101600" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$254</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="254"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2C85-405E-B17C-06EE0845D918}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -935,12 +3073,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -985,7 +3120,11 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -994,12 +3133,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1026,16 +3162,2572 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:stretch>
+        <a:fillRect/>
+      </a:stretch>
+    </a:blipFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.7073502767382189E-2"/>
+          <c:y val="1.9778275284208363E-2"/>
+          <c:w val="0.94440945451289771"/>
+          <c:h val="0.91179691816226149"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="101600" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$254</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="254"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02DC-4ECB-8516-40F596DF4E5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="101600" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$254</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="254"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02DC-4ECB-8516-40F596DF4E5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1542976447"/>
+        <c:axId val="1542971039"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1542976447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1542971039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1542971039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1542976447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:stretch>
+        <a:fillRect/>
+      </a:stretch>
+    </a:blipFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="101600" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$1:$C$233</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="233"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0735831983249707E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1864507462324102E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.83608474361918E-5</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.4772395515426601E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>3.6938917083267603E-2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.91121022369959404</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>7.0274146891632299</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>20.388768140813401</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>40.307285463940197</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>60.9967899360147</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>78.299530290065903</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>89.141809070478502</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>92.035162536670498</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>87.214275737096997</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>76.4200039795371</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>62.405402566348002</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>48.289910217649599</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>36.904617279683102</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>30.259251917380201</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>29.224535161662399</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>33.471649592489399</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>41.655494658345603</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>51.781392297430301</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>61.664484333240203</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>69.381625662383399</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>73.626929589742801</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>73.909967033613697</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>70.572816633219702</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>64.640414736861302</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>57.550276451365697</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>50.827035807907102</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>45.771749145552398</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>43.226094677499702</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>43.450836064943701</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>46.1313931048103</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>50.496903110736902</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>55.518000697461098</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>60.136362961932797</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>63.477392491059199</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>65.005539951362607</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>64.597124743202599</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>62.524340835491202</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>59.362361414019702</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>55.845526747523799</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>52.706134645113501</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>50.529501821902898</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>49.652424952191197</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>50.1208968583543</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>51.7096267735174</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>53.993411719439599</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>56.451107710158702</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>58.578382511597297</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>59.986035589810598</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>60.465816946219199</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>60.013897578710598</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>58.811508032993899</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>57.1707993345753</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>55.460081429565903</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>54.025288682098498</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>53.123611204843598</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>52.8812502609535</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>53.281296885143199</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>54.181171219209801</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>55.3532558248573</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>56.538385394115302</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>57.500324459172603</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>58.0703371597724</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>58.1739896766288</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>57.836621485243001</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>57.168500719007604</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>56.334606050313397</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>55.516538343383303</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>54.874886779486303</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>54.519464598117501</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>54.492539728289699</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>54.767105181319202</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>55.259051564045997</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>55.849460346166801</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>56.411602585639102</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>56.8368281609146</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>57.054322898829597</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>57.041420924764402</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>56.823357822385802</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>56.463552959628203</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>56.047279533413302</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>55.662610197180399</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>55.382683461338303</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>55.252676048429798</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>55.283600327581603</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>55.453484466041601</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>55.714974622582702</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>56.007220082030301</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>56.2692638245952</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>56.452136025740899</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>56.527380964342498</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>56.490678203327199</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>56.360323154537703</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>56.171374247007897</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>55.967053433057401</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>55.7893750213305</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>55.670936374322501</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>55.629383366250401</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>55.665384372763299</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>55.764169019243802</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>55.899975764456599</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>56.042240367837998</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>56.162127177684297</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>56.2380748456033</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>56.259354200319599</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>56.227128709978899</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>56.153053166390002</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>56.055930696602204</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>55.957281892040697</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>55.876811442493597</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>55.828680979262501</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>55.819247571753102</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>55.8465718818249</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>55.901619268682197</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>55.970749107227</c:v>
+                </c:pt>
+                <c:pt idx="120" formatCode="General">
+                  <c:v>56.038872071603002</c:v>
+                </c:pt>
+                <c:pt idx="121" formatCode="General">
+                  <c:v>56.092583786141503</c:v>
+                </c:pt>
+                <c:pt idx="122" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="123" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="124" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="125" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="126" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="127" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="128" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="129" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="130" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="131" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="132" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="133" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="134" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="135" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="136" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="137" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="138" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="139" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="140" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="141" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="142" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="143" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="144" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="145" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="146" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="147" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="148" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="149" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="150" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="151" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="152" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="153" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="154" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="155" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="156" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="157" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="158" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="159" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="160" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="161" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="162" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="163" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="164" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="165" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="166" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="167" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="168" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="169" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="170" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="171" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="172" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="173" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="174" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="175" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="176" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="177" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="178" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="179" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="180" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="181" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="182" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="183" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="184" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="185" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="186" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="187" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="188" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="189" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="190" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="191" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="192" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="193" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="194" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="195" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="196" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="197" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="198" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="199" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="200" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="201" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="202" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="203" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="204" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="205" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="206" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="207" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="208" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="209" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="210" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="211" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="212" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="213" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="214" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="215" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="216" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="217" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="218" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="219" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="220" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="221" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="222" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="223" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="224" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="225" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="226" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="227" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="228" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="229" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="230" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="231" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="General">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A36E-46BE-B637-6B0880761F14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="353592400"/>
+        <c:axId val="353596560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="353592400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353596560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="353596560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="353592400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+      <a:stretch>
+        <a:fillRect/>
+      </a:stretch>
+    </a:blipFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1059,6 +5751,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1614,20 +6386,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>102704</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>240195</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>178904</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>410576</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>122476</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1641,6 +7445,68 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>296277</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>84375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200890</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>580090</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>183955</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1912,1177 +7778,1876 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A233"/>
+  <dimension ref="A1:C233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AI113" sqref="AI113:AJ113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>6.0735831983249707E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>2.1864507462324102E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>5.83608474361918E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1.4772395515426601E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>3.6938917083267603E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.91121022369959404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7.0274146891632299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>20.388768140813401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>40.307285463940197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>60.9967899360147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>78.299530290065903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>89.141809070478502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>92.035162536670498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>87.214275737096997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>76.4200039795371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>62.405402566348002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>48.289910217649599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>36.904617279683102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>30.259251917380201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>29.224535161662399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>33.471649592489399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>41.655494658345603</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>51.781392297430301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>61.664484333240203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>69.381625662383399</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>73.626929589742801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>73.909967033613697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>70.572816633219702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>64.640414736861302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>57.550276451365697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>50.827035807907102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>45.771749145552398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>43.226094677499702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>43.450836064943701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>46.1313931048103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>50.496903110736902</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>55.518000697461098</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>60.136362961932797</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>63.477392491059199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>65.005539951362607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>64.597124743202599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>62.524340835491202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>59.362361414019702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>55.845526747523799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>52.706134645113501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>50.529501821902898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>49.652424952191197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>50.1208968583543</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>51.7096267735174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>53.993411719439599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>56.451107710158702</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>42</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>58.578382511597297</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>44</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>59.986035589810598</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>60.465816946219199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>60.013897578710598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>44</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>58.811508032993899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>44</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>57.1707993345753</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>44</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>55.460081429565903</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>44</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>54.025288682098498</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>43</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>53.123611204843598</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>44</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>52.8812502609535</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>43</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>53.281296885143199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>44</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>54.181171219209801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>44</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>55.3532558248573</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>44</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>56.538385394115302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>44</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>57.500324459172603</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>58.0703371597724</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>58.1739896766288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>57.836621485243001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>45</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>57.168500719007604</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>56.334606050313397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>46</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>55.516538343383303</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>46</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>54.874886779486303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>46</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>54.519464598117501</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>54.492539728289699</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>47</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>54.767105181319202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>47</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>55.259051564045997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>48</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>55.849460346166801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>49</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>56.411602585639102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>51</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>56.8368281609146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>52</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>57.054322898829597</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>53</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>57.041420924764402</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>54</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>56.823357822385802</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>54</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>56.463552959628203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>55</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>56.047279533413302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>56</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>55.662610197180399</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>55</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>55.382683461338303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>56</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>55.252676048429798</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>57</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>55.283600327581603</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>57</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>55.453484466041601</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>57</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>55.714974622582702</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>58</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>56.007220082030301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>57</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>56.2692638245952</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>58</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>56.452136025740899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>58</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>56.527380964342498</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>59</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>56.490678203327199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>59</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>56.360323154537703</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>60</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>56.171374247007897</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>58</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>55.967053433057401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>59</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>55.7893750213305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>58</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>55.670936374322501</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>59</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>55.629383366250401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>59</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>55.665384372763299</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>58</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>55.764169019243802</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>60</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>55.899975764456599</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>60</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>56.042240367837998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>59</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>56.162127177684297</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>58</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>56.2380748456033</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>60</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>56.259354200319599</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>60</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>56.227128709978899</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>58</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>56.153053166390002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>58</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>56.055930696602204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>60</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>55.957281892040697</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>60</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>55.876811442493597</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>59</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>55.828680979262501</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>59</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>55.819247571753102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>58</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>55.8465718818249</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>57</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>55.901619268682197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>58</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>55.970749107227</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>58</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>56.038872071603002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>58</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>56.092583786141503</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>58</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>57</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>58</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>58</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>58</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>58</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>57</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>59</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>58</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>56</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>57</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>57</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>56</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>57</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>57</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>57</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>56</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>57</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>58</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>57</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>58</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>57</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>57</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>56</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>57</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>57</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>56</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>57</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>57</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>58</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>57</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>57</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>58</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>57</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>57</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>57</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>57</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>57</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>57</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>57</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>56</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>56</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>57</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>56</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>57</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>57</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>56</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>57</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>56</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>56</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>57</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>56</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>56</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>56</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>56</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>56</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>56</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>56</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>56</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>55</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>56</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>56</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>55</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>56</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>56</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>56</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>54</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>56</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>56</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>56</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>55</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>56</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>55</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>54</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>54</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>56</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>55</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>54</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>54</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>55</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>54</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>54</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>54</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>55</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>54</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>54</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>55</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>52</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>53</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>55</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>55</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>54</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>54</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>55</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>56</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>56</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>56</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>54</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>56</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>54</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>56</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>54</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>56</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>56</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>55</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>56</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>56</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>55</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>54</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>56</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>55</v>
+      </c>
+      <c r="C233">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/температура.xlsx
+++ b/температура.xlsx
@@ -55,9 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -539,294 +542,6 @@
                 <c:pt idx="136">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="137">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>55</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1271,294 +986,6 @@
                 <c:pt idx="136">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="137">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>55</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2003,294 +1430,6 @@
                 <c:pt idx="136">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="137">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>55</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2734,294 +1873,6 @@
                 </c:pt>
                 <c:pt idx="136">
                   <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3228,9 +2079,7 @@
           <c:spPr>
             <a:ln w="101600" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3241,10 +2090,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$1:$A$254</c:f>
+              <c:f>Лист1!$B$1:$B$137</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="254"/>
+                <c:ptCount val="137"/>
                 <c:pt idx="0">
                   <c:v>24</c:v>
                 </c:pt>
@@ -3300,211 +2149,211 @@
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>34</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>44</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>44</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>44</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>44</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>44</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>44</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>44</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>44</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>44</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>45</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>45</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>45</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>45</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>45</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>46</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>46</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>46</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>45</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>47</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>47</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>48</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>49</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>52</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>53</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>54</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>55</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>56</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>55</c:v>
@@ -3513,435 +2362,147 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>57</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>57</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>57</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>57</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>58</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>60</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>59</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>59</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>59</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>60</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>60</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>60</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>60</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>58</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>60</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>60</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>59</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>59</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>57</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>58</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>58</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>57</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>58</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>58</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>58</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>58</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>57</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>59</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>58</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>56</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>57</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>57</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>56</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>57</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="232">
                   <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
@@ -3951,738 +2512,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-02DC-4ECB-8516-40F596DF4E5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="101600" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$A$1:$A$254</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="254"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-02DC-4ECB-8516-40F596DF4E5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4722,7 +2551,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -4815,12 +2644,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:blipFill>
-      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-      <a:stretch>
-        <a:fillRect/>
-      </a:stretch>
-    </a:blipFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -4882,707 +2706,419 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$1:$C$233</c:f>
+              <c:f>Лист1!$C$1:$C$137</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="233"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="137"/>
+                <c:pt idx="0">
+                  <c:v>20.388768140813401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0735831983249707E-8</c:v>
+                  <c:v>40.307285463940197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1864507462324102E-6</c:v>
+                  <c:v>60.9967899360147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.83608474361918E-5</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>1.4772395515426601E-3</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>3.6938917083267603E-2</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>0.91121022369959404</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>7.0274146891632299</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>20.388768140813401</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>40.307285463940197</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>60.9967899360147</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
                   <c:v>78.299530290065903</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="General">
+                <c:pt idx="4">
                   <c:v>89.141809070478502</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
+                <c:pt idx="5">
                   <c:v>92.035162536670498</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="General">
+                <c:pt idx="6">
                   <c:v>87.214275737096997</c:v>
                 </c:pt>
-                <c:pt idx="15" formatCode="General">
+                <c:pt idx="7">
                   <c:v>76.4200039795371</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="General">
+                <c:pt idx="8">
                   <c:v>62.405402566348002</c:v>
                 </c:pt>
-                <c:pt idx="17" formatCode="General">
+                <c:pt idx="9">
                   <c:v>48.289910217649599</c:v>
                 </c:pt>
-                <c:pt idx="18" formatCode="General">
+                <c:pt idx="10">
                   <c:v>36.904617279683102</c:v>
                 </c:pt>
-                <c:pt idx="19" formatCode="General">
+                <c:pt idx="11">
                   <c:v>30.259251917380201</c:v>
                 </c:pt>
-                <c:pt idx="20" formatCode="General">
+                <c:pt idx="12">
                   <c:v>29.224535161662399</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="General">
+                <c:pt idx="13">
                   <c:v>33.471649592489399</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="General">
+                <c:pt idx="14">
                   <c:v>41.655494658345603</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="General">
+                <c:pt idx="15">
                   <c:v>51.781392297430301</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="General">
+                <c:pt idx="16">
                   <c:v>61.664484333240203</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="General">
+                <c:pt idx="17">
                   <c:v>69.381625662383399</c:v>
                 </c:pt>
-                <c:pt idx="26" formatCode="General">
+                <c:pt idx="18">
                   <c:v>73.626929589742801</c:v>
                 </c:pt>
-                <c:pt idx="27" formatCode="General">
+                <c:pt idx="19">
                   <c:v>73.909967033613697</c:v>
                 </c:pt>
-                <c:pt idx="28" formatCode="General">
+                <c:pt idx="20">
                   <c:v>70.572816633219702</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="General">
+                <c:pt idx="21">
                   <c:v>64.640414736861302</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="General">
+                <c:pt idx="22">
                   <c:v>57.550276451365697</c:v>
                 </c:pt>
-                <c:pt idx="31" formatCode="General">
+                <c:pt idx="23">
                   <c:v>50.827035807907102</c:v>
                 </c:pt>
-                <c:pt idx="32" formatCode="General">
+                <c:pt idx="24">
                   <c:v>45.771749145552398</c:v>
                 </c:pt>
-                <c:pt idx="33" formatCode="General">
+                <c:pt idx="25">
                   <c:v>43.226094677499702</c:v>
                 </c:pt>
-                <c:pt idx="34" formatCode="General">
+                <c:pt idx="26">
                   <c:v>43.450836064943701</c:v>
                 </c:pt>
-                <c:pt idx="35" formatCode="General">
+                <c:pt idx="27">
                   <c:v>46.1313931048103</c:v>
                 </c:pt>
-                <c:pt idx="36" formatCode="General">
+                <c:pt idx="28">
                   <c:v>50.496903110736902</c:v>
                 </c:pt>
-                <c:pt idx="37" formatCode="General">
+                <c:pt idx="29">
                   <c:v>55.518000697461098</c:v>
                 </c:pt>
-                <c:pt idx="38" formatCode="General">
+                <c:pt idx="30">
                   <c:v>60.136362961932797</c:v>
                 </c:pt>
-                <c:pt idx="39" formatCode="General">
+                <c:pt idx="31">
                   <c:v>63.477392491059199</c:v>
                 </c:pt>
-                <c:pt idx="40" formatCode="General">
+                <c:pt idx="32">
                   <c:v>65.005539951362607</c:v>
                 </c:pt>
-                <c:pt idx="41" formatCode="General">
+                <c:pt idx="33">
                   <c:v>64.597124743202599</c:v>
                 </c:pt>
-                <c:pt idx="42" formatCode="General">
+                <c:pt idx="34">
                   <c:v>62.524340835491202</c:v>
                 </c:pt>
-                <c:pt idx="43" formatCode="General">
+                <c:pt idx="35">
                   <c:v>59.362361414019702</c:v>
                 </c:pt>
-                <c:pt idx="44" formatCode="General">
+                <c:pt idx="36">
                   <c:v>55.845526747523799</c:v>
                 </c:pt>
-                <c:pt idx="45" formatCode="General">
+                <c:pt idx="37">
                   <c:v>52.706134645113501</c:v>
                 </c:pt>
-                <c:pt idx="46" formatCode="General">
+                <c:pt idx="38">
                   <c:v>50.529501821902898</c:v>
                 </c:pt>
-                <c:pt idx="47" formatCode="General">
+                <c:pt idx="39">
                   <c:v>49.652424952191197</c:v>
                 </c:pt>
-                <c:pt idx="48" formatCode="General">
+                <c:pt idx="40">
                   <c:v>50.1208968583543</c:v>
                 </c:pt>
-                <c:pt idx="49" formatCode="General">
+                <c:pt idx="41">
                   <c:v>51.7096267735174</c:v>
                 </c:pt>
-                <c:pt idx="50" formatCode="General">
+                <c:pt idx="42">
                   <c:v>53.993411719439599</c:v>
                 </c:pt>
-                <c:pt idx="51" formatCode="General">
+                <c:pt idx="43">
                   <c:v>56.451107710158702</c:v>
                 </c:pt>
-                <c:pt idx="52" formatCode="General">
+                <c:pt idx="44">
                   <c:v>58.578382511597297</c:v>
                 </c:pt>
-                <c:pt idx="53" formatCode="General">
+                <c:pt idx="45">
                   <c:v>59.986035589810598</c:v>
                 </c:pt>
-                <c:pt idx="54" formatCode="General">
+                <c:pt idx="46">
                   <c:v>60.465816946219199</c:v>
                 </c:pt>
-                <c:pt idx="55" formatCode="General">
+                <c:pt idx="47">
                   <c:v>60.013897578710598</c:v>
                 </c:pt>
-                <c:pt idx="56" formatCode="General">
+                <c:pt idx="48">
                   <c:v>58.811508032993899</c:v>
                 </c:pt>
-                <c:pt idx="57" formatCode="General">
+                <c:pt idx="49">
                   <c:v>57.1707993345753</c:v>
                 </c:pt>
-                <c:pt idx="58" formatCode="General">
+                <c:pt idx="50">
                   <c:v>55.460081429565903</c:v>
                 </c:pt>
-                <c:pt idx="59" formatCode="General">
+                <c:pt idx="51">
                   <c:v>54.025288682098498</c:v>
                 </c:pt>
-                <c:pt idx="60" formatCode="General">
+                <c:pt idx="52">
                   <c:v>53.123611204843598</c:v>
                 </c:pt>
-                <c:pt idx="61" formatCode="General">
+                <c:pt idx="53">
                   <c:v>52.8812502609535</c:v>
                 </c:pt>
-                <c:pt idx="62" formatCode="General">
+                <c:pt idx="54">
                   <c:v>53.281296885143199</c:v>
                 </c:pt>
-                <c:pt idx="63" formatCode="General">
+                <c:pt idx="55">
                   <c:v>54.181171219209801</c:v>
                 </c:pt>
-                <c:pt idx="64" formatCode="General">
+                <c:pt idx="56">
                   <c:v>55.3532558248573</c:v>
                 </c:pt>
-                <c:pt idx="65" formatCode="General">
+                <c:pt idx="57">
                   <c:v>56.538385394115302</c:v>
                 </c:pt>
-                <c:pt idx="66" formatCode="General">
+                <c:pt idx="58">
                   <c:v>57.500324459172603</c:v>
                 </c:pt>
-                <c:pt idx="67" formatCode="General">
+                <c:pt idx="59">
                   <c:v>58.0703371597724</c:v>
                 </c:pt>
-                <c:pt idx="68" formatCode="General">
+                <c:pt idx="60">
                   <c:v>58.1739896766288</c:v>
                 </c:pt>
-                <c:pt idx="69" formatCode="General">
+                <c:pt idx="61">
                   <c:v>57.836621485243001</c:v>
                 </c:pt>
-                <c:pt idx="70" formatCode="General">
+                <c:pt idx="62">
                   <c:v>57.168500719007604</c:v>
                 </c:pt>
-                <c:pt idx="71" formatCode="General">
+                <c:pt idx="63">
                   <c:v>56.334606050313397</c:v>
                 </c:pt>
-                <c:pt idx="72" formatCode="General">
+                <c:pt idx="64">
                   <c:v>55.516538343383303</c:v>
                 </c:pt>
-                <c:pt idx="73" formatCode="General">
+                <c:pt idx="65">
                   <c:v>54.874886779486303</c:v>
                 </c:pt>
-                <c:pt idx="74" formatCode="General">
+                <c:pt idx="66">
                   <c:v>54.519464598117501</c:v>
                 </c:pt>
-                <c:pt idx="75" formatCode="General">
+                <c:pt idx="67">
                   <c:v>54.492539728289699</c:v>
                 </c:pt>
-                <c:pt idx="76" formatCode="General">
+                <c:pt idx="68">
                   <c:v>54.767105181319202</c:v>
                 </c:pt>
-                <c:pt idx="77" formatCode="General">
+                <c:pt idx="69">
                   <c:v>55.259051564045997</c:v>
                 </c:pt>
-                <c:pt idx="78" formatCode="General">
+                <c:pt idx="70">
                   <c:v>55.849460346166801</c:v>
                 </c:pt>
-                <c:pt idx="79" formatCode="General">
+                <c:pt idx="71">
                   <c:v>56.411602585639102</c:v>
                 </c:pt>
-                <c:pt idx="80" formatCode="General">
+                <c:pt idx="72">
                   <c:v>56.8368281609146</c:v>
                 </c:pt>
-                <c:pt idx="81" formatCode="General">
+                <c:pt idx="73">
                   <c:v>57.054322898829597</c:v>
                 </c:pt>
-                <c:pt idx="82" formatCode="General">
+                <c:pt idx="74">
                   <c:v>57.041420924764402</c:v>
                 </c:pt>
-                <c:pt idx="83" formatCode="General">
+                <c:pt idx="75">
                   <c:v>56.823357822385802</c:v>
                 </c:pt>
-                <c:pt idx="84" formatCode="General">
+                <c:pt idx="76">
                   <c:v>56.463552959628203</c:v>
                 </c:pt>
-                <c:pt idx="85" formatCode="General">
+                <c:pt idx="77">
                   <c:v>56.047279533413302</c:v>
                 </c:pt>
-                <c:pt idx="86" formatCode="General">
+                <c:pt idx="78">
                   <c:v>55.662610197180399</c:v>
                 </c:pt>
-                <c:pt idx="87" formatCode="General">
+                <c:pt idx="79">
                   <c:v>55.382683461338303</c:v>
                 </c:pt>
-                <c:pt idx="88" formatCode="General">
+                <c:pt idx="80">
                   <c:v>55.252676048429798</c:v>
                 </c:pt>
-                <c:pt idx="89" formatCode="General">
+                <c:pt idx="81">
                   <c:v>55.283600327581603</c:v>
                 </c:pt>
-                <c:pt idx="90" formatCode="General">
+                <c:pt idx="82">
                   <c:v>55.453484466041601</c:v>
                 </c:pt>
-                <c:pt idx="91" formatCode="General">
+                <c:pt idx="83">
                   <c:v>55.714974622582702</c:v>
                 </c:pt>
-                <c:pt idx="92" formatCode="General">
+                <c:pt idx="84">
                   <c:v>56.007220082030301</c:v>
                 </c:pt>
-                <c:pt idx="93" formatCode="General">
+                <c:pt idx="85">
                   <c:v>56.2692638245952</c:v>
                 </c:pt>
-                <c:pt idx="94" formatCode="General">
+                <c:pt idx="86">
                   <c:v>56.452136025740899</c:v>
                 </c:pt>
-                <c:pt idx="95" formatCode="General">
+                <c:pt idx="87">
                   <c:v>56.527380964342498</c:v>
                 </c:pt>
-                <c:pt idx="96" formatCode="General">
+                <c:pt idx="88">
                   <c:v>56.490678203327199</c:v>
                 </c:pt>
-                <c:pt idx="97" formatCode="General">
+                <c:pt idx="89">
                   <c:v>56.360323154537703</c:v>
                 </c:pt>
-                <c:pt idx="98" formatCode="General">
+                <c:pt idx="90">
                   <c:v>56.171374247007897</c:v>
                 </c:pt>
-                <c:pt idx="99" formatCode="General">
+                <c:pt idx="91">
                   <c:v>55.967053433057401</c:v>
                 </c:pt>
-                <c:pt idx="100" formatCode="General">
+                <c:pt idx="92">
                   <c:v>55.7893750213305</c:v>
                 </c:pt>
-                <c:pt idx="101" formatCode="General">
+                <c:pt idx="93">
                   <c:v>55.670936374322501</c:v>
                 </c:pt>
-                <c:pt idx="102" formatCode="General">
+                <c:pt idx="94">
                   <c:v>55.629383366250401</c:v>
                 </c:pt>
-                <c:pt idx="103" formatCode="General">
+                <c:pt idx="95">
                   <c:v>55.665384372763299</c:v>
                 </c:pt>
-                <c:pt idx="104" formatCode="General">
+                <c:pt idx="96">
                   <c:v>55.764169019243802</c:v>
                 </c:pt>
-                <c:pt idx="105" formatCode="General">
+                <c:pt idx="97">
                   <c:v>55.899975764456599</c:v>
                 </c:pt>
-                <c:pt idx="106" formatCode="General">
+                <c:pt idx="98">
                   <c:v>56.042240367837998</c:v>
                 </c:pt>
-                <c:pt idx="107" formatCode="General">
+                <c:pt idx="99">
                   <c:v>56.162127177684297</c:v>
                 </c:pt>
-                <c:pt idx="108" formatCode="General">
+                <c:pt idx="100">
                   <c:v>56.2380748456033</c:v>
                 </c:pt>
-                <c:pt idx="109" formatCode="General">
+                <c:pt idx="101">
                   <c:v>56.259354200319599</c:v>
                 </c:pt>
-                <c:pt idx="110" formatCode="General">
+                <c:pt idx="102">
                   <c:v>56.227128709978899</c:v>
                 </c:pt>
-                <c:pt idx="111" formatCode="General">
+                <c:pt idx="103">
                   <c:v>56.153053166390002</c:v>
                 </c:pt>
-                <c:pt idx="112" formatCode="General">
+                <c:pt idx="104">
                   <c:v>56.055930696602204</c:v>
                 </c:pt>
-                <c:pt idx="113" formatCode="General">
+                <c:pt idx="105">
                   <c:v>55.957281892040697</c:v>
                 </c:pt>
-                <c:pt idx="114" formatCode="General">
+                <c:pt idx="106">
                   <c:v>55.876811442493597</c:v>
                 </c:pt>
-                <c:pt idx="115" formatCode="General">
+                <c:pt idx="107">
                   <c:v>55.828680979262501</c:v>
                 </c:pt>
-                <c:pt idx="116" formatCode="General">
+                <c:pt idx="108">
                   <c:v>55.819247571753102</c:v>
                 </c:pt>
-                <c:pt idx="117" formatCode="General">
+                <c:pt idx="109">
                   <c:v>55.8465718818249</c:v>
                 </c:pt>
-                <c:pt idx="118" formatCode="General">
+                <c:pt idx="110">
                   <c:v>55.901619268682197</c:v>
                 </c:pt>
-                <c:pt idx="119" formatCode="General">
+                <c:pt idx="111">
                   <c:v>55.970749107227</c:v>
                 </c:pt>
-                <c:pt idx="120" formatCode="General">
+                <c:pt idx="112">
                   <c:v>56.038872071603002</c:v>
                 </c:pt>
-                <c:pt idx="121" formatCode="General">
+                <c:pt idx="113">
                   <c:v>56.092583786141503</c:v>
                 </c:pt>
-                <c:pt idx="122" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="123" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="124" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="125" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="126" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="127" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="128" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="129" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="130" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="131" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="132" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="133" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="134" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="135" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="136" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="137" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="138" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="139" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="140" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="141" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="142" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="143" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="144" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="145" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="146" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="147" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="148" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="149" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="150" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="151" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="152" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="153" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="154" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="155" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="156" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="157" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="158" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="159" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="160" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="161" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="162" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="163" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="164" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="165" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="166" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="167" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="168" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="169" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="170" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="171" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="172" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="173" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="174" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="175" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="176" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="177" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="178" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="179" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="180" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="181" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="182" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="183" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="184" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="185" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="186" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="187" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="188" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="189" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="190" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="191" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="192" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="193" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="194" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="195" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="196" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="197" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="198" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="199" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="200" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="201" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="202" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="203" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="204" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="205" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="206" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="207" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="208" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="209" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="210" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="211" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="212" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="213" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="214" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="215" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="216" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="217" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="218" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="219" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="220" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="221" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="222" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="223" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="224" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="225" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="226" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="227" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="228" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="229" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="230" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="231" formatCode="General">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="232" formatCode="General">
+                <c:pt idx="114">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
@@ -5631,7 +3167,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5720,12 +3256,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:blipFill>
-      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-      <a:stretch>
-        <a:fillRect/>
-      </a:stretch>
-    </a:blipFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
       <a:round/>
@@ -7778,994 +5309,1388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:AH137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI113" sqref="AI113:AJ113"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>24</v>
       </c>
+      <c r="B1">
+        <v>24</v>
+      </c>
       <c r="C1">
+        <v>20.388768140813401</v>
+      </c>
+      <c r="H1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>22</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>40.307285463940197</v>
+      </c>
+      <c r="H2" s="1">
         <v>6.0735831983249707E-8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>60.9967899360147</v>
+      </c>
+      <c r="H3" s="1">
         <v>2.1864507462324102E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>23</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>78.299530290065903</v>
+      </c>
+      <c r="H4" s="1">
         <v>5.83608474361918E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>23</v>
       </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
       <c r="C5">
+        <v>89.141809070478502</v>
+      </c>
+      <c r="H5">
         <v>1.4772395515426601E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>24</v>
       </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
       <c r="C6">
+        <v>92.035162536670498</v>
+      </c>
+      <c r="H6">
         <v>3.6938917083267603E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23</v>
       </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
       <c r="C7">
+        <v>87.214275737096997</v>
+      </c>
+      <c r="H7">
         <v>0.91121022369959404</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
       <c r="C8">
+        <v>76.4200039795371</v>
+      </c>
+      <c r="H8">
         <v>7.0274146891632299</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25</v>
       </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
       <c r="C9">
-        <v>20.388768140813401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62.405402566348002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25</v>
       </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
       <c r="C10">
-        <v>40.307285463940197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48.289910217649599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>28</v>
       </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
       <c r="C11">
-        <v>60.9967899360147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36.904617279683102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>28</v>
       </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
       <c r="C12">
-        <v>78.299530290065903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30.259251917380201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>29</v>
       </c>
+      <c r="B13">
+        <v>29</v>
+      </c>
       <c r="C13">
-        <v>89.141809070478502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29.224535161662399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29</v>
       </c>
+      <c r="B14">
+        <v>29</v>
+      </c>
       <c r="C14">
-        <v>92.035162536670498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33.471649592489399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30</v>
       </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
       <c r="C15">
-        <v>87.214275737096997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41.655494658345603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29</v>
       </c>
+      <c r="B16">
+        <v>29</v>
+      </c>
       <c r="C16">
-        <v>76.4200039795371</v>
-      </c>
+        <v>51.781392297430301</v>
+      </c>
+      <c r="AH16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31</v>
       </c>
+      <c r="B17">
+        <v>31</v>
+      </c>
       <c r="C17">
-        <v>62.405402566348002</v>
+        <v>61.664484333240203</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>29</v>
       </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
       <c r="C18">
-        <v>48.289910217649599</v>
+        <v>69.381625662383399</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>33</v>
       </c>
+      <c r="B19">
+        <v>31</v>
+      </c>
       <c r="C19">
-        <v>36.904617279683102</v>
+        <v>73.626929589742801</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32</v>
       </c>
+      <c r="B20">
+        <v>32</v>
+      </c>
       <c r="C20">
-        <v>30.259251917380201</v>
+        <v>73.909967033613697</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>33</v>
       </c>
+      <c r="B21">
+        <v>32</v>
+      </c>
       <c r="C21">
-        <v>29.224535161662399</v>
+        <v>70.572816633219702</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>33</v>
       </c>
+      <c r="B22">
+        <v>33</v>
+      </c>
       <c r="C22">
-        <v>33.471649592489399</v>
+        <v>64.640414736861302</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>34</v>
       </c>
+      <c r="B23">
+        <v>33</v>
+      </c>
       <c r="C23">
-        <v>41.655494658345603</v>
+        <v>57.550276451365697</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>36</v>
       </c>
+      <c r="B24">
+        <v>33</v>
+      </c>
       <c r="C24">
-        <v>51.781392297430301</v>
+        <v>50.827035807907102</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>35</v>
       </c>
+      <c r="B25">
+        <v>36</v>
+      </c>
       <c r="C25">
-        <v>61.664484333240203</v>
+        <v>45.771749145552398</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>37</v>
       </c>
+      <c r="B26">
+        <v>37</v>
+      </c>
       <c r="C26">
-        <v>69.381625662383399</v>
+        <v>43.226094677499702</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>35</v>
       </c>
+      <c r="B27">
+        <v>36</v>
+      </c>
       <c r="C27">
-        <v>73.626929589742801</v>
+        <v>43.450836064943701</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>36</v>
       </c>
+      <c r="B28">
+        <v>38</v>
+      </c>
       <c r="C28">
-        <v>73.909967033613697</v>
+        <v>46.1313931048103</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>37</v>
       </c>
+      <c r="B29">
+        <v>38</v>
+      </c>
       <c r="C29">
-        <v>70.572816633219702</v>
+        <v>50.496903110736902</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>38</v>
       </c>
+      <c r="B30">
+        <v>39</v>
+      </c>
       <c r="C30">
-        <v>64.640414736861302</v>
+        <v>55.518000697461098</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>38</v>
       </c>
+      <c r="B31">
+        <v>39</v>
+      </c>
       <c r="C31">
-        <v>57.550276451365697</v>
+        <v>60.136362961932797</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>40</v>
       </c>
+      <c r="B32">
+        <v>40</v>
+      </c>
       <c r="C32">
-        <v>50.827035807907102</v>
+        <v>63.477392491059199</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>39</v>
       </c>
+      <c r="B33">
+        <v>41</v>
+      </c>
       <c r="C33">
-        <v>45.771749145552398</v>
+        <v>65.005539951362607</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>39</v>
       </c>
+      <c r="B34">
+        <v>41</v>
+      </c>
       <c r="C34">
-        <v>43.226094677499702</v>
+        <v>64.597124743202599</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>40</v>
       </c>
+      <c r="B35">
+        <v>42</v>
+      </c>
       <c r="C35">
-        <v>43.450836064943701</v>
+        <v>62.524340835491202</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>41</v>
       </c>
+      <c r="B36">
+        <v>41</v>
+      </c>
       <c r="C36">
-        <v>46.1313931048103</v>
+        <v>59.362361414019702</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>41</v>
       </c>
+      <c r="B37">
+        <v>42</v>
+      </c>
       <c r="C37">
-        <v>50.496903110736902</v>
+        <v>55.845526747523799</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>42</v>
       </c>
+      <c r="B38">
+        <v>42</v>
+      </c>
       <c r="C38">
-        <v>55.518000697461098</v>
+        <v>52.706134645113501</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>41</v>
       </c>
+      <c r="B39">
+        <v>42</v>
+      </c>
       <c r="C39">
-        <v>60.136362961932797</v>
+        <v>50.529501821902898</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>42</v>
       </c>
+      <c r="B40">
+        <v>43</v>
+      </c>
       <c r="C40">
-        <v>63.477392491059199</v>
+        <v>49.652424952191197</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>43</v>
       </c>
+      <c r="B41">
+        <v>44</v>
+      </c>
       <c r="C41">
-        <v>65.005539951362607</v>
+        <v>50.1208968583543</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>43</v>
       </c>
+      <c r="B42">
+        <v>43</v>
+      </c>
       <c r="C42">
-        <v>64.597124743202599</v>
+        <v>51.7096267735174</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43">
+        <v>44</v>
+      </c>
       <c r="C43">
-        <v>62.524340835491202</v>
+        <v>53.993411719439599</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
+      <c r="B44">
+        <v>45</v>
+      </c>
       <c r="C44">
-        <v>59.362361414019702</v>
+        <v>56.451107710158702</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
+      <c r="B45">
+        <v>45</v>
+      </c>
       <c r="C45">
-        <v>55.845526747523799</v>
+        <v>58.578382511597297</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46">
+        <v>46</v>
+      </c>
       <c r="C46">
-        <v>52.706134645113501</v>
+        <v>59.986035589810598</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
       <c r="C47">
-        <v>50.529501821902898</v>
+        <v>60.465816946219199</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
       <c r="C48">
-        <v>49.652424952191197</v>
+        <v>60.013897578710598</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>44</v>
       </c>
+      <c r="B49">
+        <v>46</v>
+      </c>
       <c r="C49">
-        <v>50.1208968583543</v>
+        <v>58.811508032993899</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43</v>
       </c>
+      <c r="B50">
+        <v>46</v>
+      </c>
       <c r="C50">
-        <v>51.7096267735174</v>
+        <v>57.1707993345753</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>43</v>
       </c>
+      <c r="B51">
+        <v>46</v>
+      </c>
       <c r="C51">
-        <v>53.993411719439599</v>
+        <v>55.460081429565903</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>42</v>
       </c>
+      <c r="B52">
+        <v>48</v>
+      </c>
       <c r="C52">
-        <v>56.451107710158702</v>
+        <v>54.025288682098498</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>42</v>
       </c>
+      <c r="B53">
+        <v>46</v>
+      </c>
       <c r="C53">
-        <v>58.578382511597297</v>
+        <v>53.123611204843598</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>44</v>
       </c>
+      <c r="B54">
+        <v>47</v>
+      </c>
       <c r="C54">
-        <v>59.986035589810598</v>
+        <v>52.8812502609535</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>44</v>
       </c>
+      <c r="B55">
+        <v>48</v>
+      </c>
       <c r="C55">
-        <v>60.465816946219199</v>
+        <v>53.281296885143199</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>44</v>
       </c>
+      <c r="B56">
+        <v>48</v>
+      </c>
       <c r="C56">
-        <v>60.013897578710598</v>
+        <v>54.181171219209801</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>44</v>
       </c>
+      <c r="B57">
+        <v>48</v>
+      </c>
       <c r="C57">
-        <v>58.811508032993899</v>
+        <v>55.3532558248573</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>44</v>
       </c>
+      <c r="B58">
+        <v>48</v>
+      </c>
       <c r="C58">
-        <v>57.1707993345753</v>
+        <v>56.538385394115302</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>44</v>
       </c>
+      <c r="B59">
+        <v>49</v>
+      </c>
       <c r="C59">
-        <v>55.460081429565903</v>
+        <v>57.500324459172603</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>44</v>
       </c>
+      <c r="B60">
+        <v>49</v>
+      </c>
       <c r="C60">
-        <v>54.025288682098498</v>
+        <v>58.0703371597724</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>43</v>
       </c>
+      <c r="B61">
+        <v>50</v>
+      </c>
       <c r="C61">
-        <v>53.123611204843598</v>
+        <v>58.1739896766288</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>44</v>
       </c>
+      <c r="B62">
+        <v>49</v>
+      </c>
       <c r="C62">
-        <v>52.8812502609535</v>
+        <v>57.836621485243001</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>43</v>
       </c>
+      <c r="B63">
+        <v>49</v>
+      </c>
       <c r="C63">
-        <v>53.281296885143199</v>
+        <v>57.168500719007604</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>44</v>
       </c>
+      <c r="B64">
+        <v>50</v>
+      </c>
       <c r="C64">
-        <v>54.181171219209801</v>
+        <v>56.334606050313397</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>44</v>
       </c>
+      <c r="B65">
+        <v>50</v>
+      </c>
       <c r="C65">
-        <v>55.3532558248573</v>
+        <v>55.516538343383303</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>44</v>
       </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
       <c r="C66">
-        <v>56.538385394115302</v>
+        <v>54.874886779486303</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>44</v>
       </c>
+      <c r="B67">
+        <v>51</v>
+      </c>
       <c r="C67">
-        <v>57.500324459172603</v>
+        <v>54.519464598117501</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>45</v>
       </c>
+      <c r="B68">
+        <v>52</v>
+      </c>
       <c r="C68">
-        <v>58.0703371597724</v>
+        <v>54.492539728289699</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>45</v>
       </c>
+      <c r="B69">
+        <v>51</v>
+      </c>
       <c r="C69">
-        <v>58.1739896766288</v>
+        <v>54.767105181319202</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>45</v>
       </c>
+      <c r="B70">
+        <v>52</v>
+      </c>
       <c r="C70">
-        <v>57.836621485243001</v>
+        <v>55.259051564045997</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>45</v>
       </c>
+      <c r="B71">
+        <v>52</v>
+      </c>
       <c r="C71">
-        <v>57.168500719007604</v>
+        <v>55.849460346166801</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>45</v>
       </c>
+      <c r="B72">
+        <v>52</v>
+      </c>
       <c r="C72">
-        <v>56.334606050313397</v>
+        <v>56.411602585639102</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>46</v>
       </c>
+      <c r="B73">
+        <v>51</v>
+      </c>
       <c r="C73">
-        <v>55.516538343383303</v>
+        <v>56.8368281609146</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>46</v>
       </c>
+      <c r="B74">
+        <v>52</v>
+      </c>
       <c r="C74">
-        <v>54.874886779486303</v>
+        <v>57.054322898829597</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>46</v>
       </c>
+      <c r="B75">
+        <v>52</v>
+      </c>
       <c r="C75">
-        <v>54.519464598117501</v>
+        <v>57.041420924764402</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>45</v>
       </c>
+      <c r="B76">
+        <v>52</v>
+      </c>
       <c r="C76">
-        <v>54.492539728289699</v>
+        <v>56.823357822385802</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>47</v>
       </c>
+      <c r="B77">
+        <v>52</v>
+      </c>
       <c r="C77">
-        <v>54.767105181319202</v>
+        <v>56.463552959628203</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>47</v>
       </c>
+      <c r="B78">
+        <v>54</v>
+      </c>
       <c r="C78">
-        <v>55.259051564045997</v>
+        <v>56.047279533413302</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>48</v>
       </c>
+      <c r="B79">
+        <v>53</v>
+      </c>
       <c r="C79">
-        <v>55.849460346166801</v>
+        <v>55.662610197180399</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>49</v>
       </c>
+      <c r="B80">
+        <v>53</v>
+      </c>
       <c r="C80">
-        <v>56.411602585639102</v>
+        <v>55.382683461338303</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>51</v>
       </c>
+      <c r="B81">
+        <v>54</v>
+      </c>
       <c r="C81">
-        <v>56.8368281609146</v>
+        <v>55.252676048429798</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>52</v>
       </c>
+      <c r="B82">
+        <v>54</v>
+      </c>
       <c r="C82">
-        <v>57.054322898829597</v>
+        <v>55.283600327581603</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>53</v>
       </c>
+      <c r="B83">
+        <v>54</v>
+      </c>
       <c r="C83">
-        <v>57.041420924764402</v>
+        <v>55.453484466041601</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>54</v>
       </c>
+      <c r="B84">
+        <v>56</v>
+      </c>
       <c r="C84">
-        <v>56.823357822385802</v>
+        <v>55.714974622582702</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>54</v>
       </c>
+      <c r="B85">
+        <v>54</v>
+      </c>
       <c r="C85">
-        <v>56.463552959628203</v>
+        <v>56.007220082030301</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>55</v>
       </c>
+      <c r="B86">
+        <v>54</v>
+      </c>
       <c r="C86">
-        <v>56.047279533413302</v>
+        <v>56.2692638245952</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>56</v>
       </c>
+      <c r="B87">
+        <v>54</v>
+      </c>
       <c r="C87">
-        <v>55.662610197180399</v>
+        <v>56.452136025740899</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>55</v>
       </c>
+      <c r="B88">
+        <v>55</v>
+      </c>
       <c r="C88">
-        <v>55.382683461338303</v>
+        <v>56.527380964342498</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>56</v>
       </c>
+      <c r="B89">
+        <v>56</v>
+      </c>
       <c r="C89">
-        <v>55.252676048429798</v>
+        <v>56.490678203327199</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>57</v>
       </c>
+      <c r="B90">
+        <v>54</v>
+      </c>
       <c r="C90">
-        <v>55.283600327581603</v>
+        <v>56.360323154537703</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>57</v>
       </c>
+      <c r="B91">
+        <v>56</v>
+      </c>
       <c r="C91">
-        <v>55.453484466041601</v>
+        <v>56.171374247007897</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>57</v>
       </c>
+      <c r="B92">
+        <v>56</v>
+      </c>
       <c r="C92">
-        <v>55.714974622582702</v>
+        <v>55.967053433057401</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>58</v>
       </c>
+      <c r="B93">
+        <v>56</v>
+      </c>
       <c r="C93">
-        <v>56.007220082030301</v>
+        <v>55.7893750213305</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>57</v>
       </c>
+      <c r="B94">
+        <v>56</v>
+      </c>
       <c r="C94">
-        <v>56.2692638245952</v>
+        <v>55.670936374322501</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>58</v>
       </c>
+      <c r="B95">
+        <v>55</v>
+      </c>
       <c r="C95">
-        <v>56.452136025740899</v>
+        <v>55.629383366250401</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>58</v>
       </c>
+      <c r="B96">
+        <v>56</v>
+      </c>
       <c r="C96">
-        <v>56.527380964342498</v>
+        <v>55.665384372763299</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>59</v>
       </c>
+      <c r="B97">
+        <v>55</v>
+      </c>
       <c r="C97">
-        <v>56.490678203327199</v>
+        <v>55.764169019243802</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>59</v>
       </c>
+      <c r="B98">
+        <v>55</v>
+      </c>
       <c r="C98">
-        <v>56.360323154537703</v>
+        <v>55.899975764456599</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>60</v>
       </c>
+      <c r="B99">
+        <v>56</v>
+      </c>
       <c r="C99">
-        <v>56.171374247007897</v>
+        <v>56.042240367837998</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>58</v>
       </c>
+      <c r="B100">
+        <v>56</v>
+      </c>
       <c r="C100">
-        <v>55.967053433057401</v>
+        <v>56.162127177684297</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>59</v>
       </c>
+      <c r="B101">
+        <v>56</v>
+      </c>
       <c r="C101">
-        <v>55.7893750213305</v>
+        <v>56.2380748456033</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>58</v>
       </c>
+      <c r="B102">
+        <v>56</v>
+      </c>
       <c r="C102">
-        <v>55.670936374322501</v>
+        <v>56.259354200319599</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>59</v>
       </c>
+      <c r="B103">
+        <v>56</v>
+      </c>
       <c r="C103">
-        <v>55.629383366250401</v>
+        <v>56.227128709978899</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>59</v>
       </c>
+      <c r="B104">
+        <v>56</v>
+      </c>
       <c r="C104">
-        <v>55.665384372763299</v>
+        <v>56.153053166390002</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>58</v>
       </c>
+      <c r="B105">
+        <v>56</v>
+      </c>
       <c r="C105">
-        <v>55.764169019243802</v>
+        <v>56.055930696602204</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>60</v>
       </c>
+      <c r="B106">
+        <v>56</v>
+      </c>
       <c r="C106">
-        <v>55.899975764456599</v>
+        <v>55.957281892040697</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>60</v>
       </c>
+      <c r="B107">
+        <v>56</v>
+      </c>
       <c r="C107">
-        <v>56.042240367837998</v>
+        <v>55.876811442493597</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>59</v>
       </c>
+      <c r="B108">
+        <v>55</v>
+      </c>
       <c r="C108">
-        <v>56.162127177684297</v>
+        <v>55.828680979262501</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>58</v>
       </c>
+      <c r="B109">
+        <v>56</v>
+      </c>
       <c r="C109">
-        <v>56.2380748456033</v>
+        <v>55.819247571753102</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>60</v>
       </c>
+      <c r="B110">
+        <v>56</v>
+      </c>
       <c r="C110">
-        <v>56.259354200319599</v>
+        <v>55.8465718818249</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>60</v>
       </c>
+      <c r="B111">
+        <v>56</v>
+      </c>
       <c r="C111">
-        <v>56.227128709978899</v>
+        <v>55.901619268682197</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>58</v>
       </c>
+      <c r="B112">
+        <v>55</v>
+      </c>
       <c r="C112">
-        <v>56.153053166390002</v>
+        <v>55.970749107227</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>58</v>
       </c>
+      <c r="B113">
+        <v>56</v>
+      </c>
       <c r="C113">
-        <v>56.055930696602204</v>
+        <v>56.038872071603002</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>60</v>
       </c>
+      <c r="B114">
+        <v>55</v>
+      </c>
       <c r="C114">
-        <v>55.957281892040697</v>
+        <v>56.092583786141503</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>60</v>
       </c>
+      <c r="B115">
+        <v>56</v>
+      </c>
       <c r="C115">
-        <v>55.876811442493597</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>59</v>
       </c>
+      <c r="B116">
+        <v>56</v>
+      </c>
       <c r="C116">
-        <v>55.828680979262501</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>59</v>
       </c>
+      <c r="B117">
+        <v>56</v>
+      </c>
       <c r="C117">
-        <v>55.819247571753102</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>58</v>
       </c>
+      <c r="B118">
+        <v>56</v>
+      </c>
       <c r="C118">
-        <v>55.8465718818249</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>57</v>
       </c>
+      <c r="B119">
+        <v>56</v>
+      </c>
       <c r="C119">
-        <v>55.901619268682197</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>58</v>
       </c>
+      <c r="B120">
+        <v>56</v>
+      </c>
       <c r="C120">
-        <v>55.970749107227</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>58</v>
       </c>
+      <c r="B121">
+        <v>55</v>
+      </c>
       <c r="C121">
-        <v>56.038872071603002</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>58</v>
       </c>
+      <c r="B122">
+        <v>56</v>
+      </c>
       <c r="C122">
-        <v>56.092583786141503</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>58</v>
       </c>
+      <c r="B123">
+        <v>55</v>
+      </c>
       <c r="C123">
         <v>56</v>
       </c>
@@ -8774,6 +6699,9 @@
       <c r="A124">
         <v>57</v>
       </c>
+      <c r="B124">
+        <v>56</v>
+      </c>
       <c r="C124">
         <v>56</v>
       </c>
@@ -8782,6 +6710,9 @@
       <c r="A125">
         <v>58</v>
       </c>
+      <c r="B125">
+        <v>55</v>
+      </c>
       <c r="C125">
         <v>56</v>
       </c>
@@ -8790,6 +6721,9 @@
       <c r="A126">
         <v>58</v>
       </c>
+      <c r="B126">
+        <v>55</v>
+      </c>
       <c r="C126">
         <v>56</v>
       </c>
@@ -8798,6 +6732,9 @@
       <c r="A127">
         <v>58</v>
       </c>
+      <c r="B127">
+        <v>55</v>
+      </c>
       <c r="C127">
         <v>56</v>
       </c>
@@ -8806,6 +6743,9 @@
       <c r="A128">
         <v>58</v>
       </c>
+      <c r="B128">
+        <v>56</v>
+      </c>
       <c r="C128">
         <v>56</v>
       </c>
@@ -8814,6 +6754,9 @@
       <c r="A129">
         <v>57</v>
       </c>
+      <c r="B129">
+        <v>56</v>
+      </c>
       <c r="C129">
         <v>56</v>
       </c>
@@ -8822,6 +6765,9 @@
       <c r="A130">
         <v>59</v>
       </c>
+      <c r="B130">
+        <v>55</v>
+      </c>
       <c r="C130">
         <v>56</v>
       </c>
@@ -8830,6 +6776,9 @@
       <c r="A131">
         <v>58</v>
       </c>
+      <c r="B131">
+        <v>55</v>
+      </c>
       <c r="C131">
         <v>56</v>
       </c>
@@ -8838,6 +6787,9 @@
       <c r="A132">
         <v>56</v>
       </c>
+      <c r="B132">
+        <v>55</v>
+      </c>
       <c r="C132">
         <v>56</v>
       </c>
@@ -8846,6 +6798,9 @@
       <c r="A133">
         <v>57</v>
       </c>
+      <c r="B133">
+        <v>55</v>
+      </c>
       <c r="C133">
         <v>56</v>
       </c>
@@ -8854,6 +6809,9 @@
       <c r="A134">
         <v>57</v>
       </c>
+      <c r="B134">
+        <v>56</v>
+      </c>
       <c r="C134">
         <v>56</v>
       </c>
@@ -8862,6 +6820,9 @@
       <c r="A135">
         <v>56</v>
       </c>
+      <c r="B135">
+        <v>55</v>
+      </c>
       <c r="C135">
         <v>56</v>
       </c>
@@ -8870,6 +6831,9 @@
       <c r="A136">
         <v>57</v>
       </c>
+      <c r="B136">
+        <v>56</v>
+      </c>
       <c r="C136">
         <v>56</v>
       </c>
@@ -8878,775 +6842,10 @@
       <c r="A137">
         <v>57</v>
       </c>
+      <c r="B137">
+        <v>55</v>
+      </c>
       <c r="C137">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>57</v>
-      </c>
-      <c r="C138">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>56</v>
-      </c>
-      <c r="C139">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>57</v>
-      </c>
-      <c r="C140">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>58</v>
-      </c>
-      <c r="C141">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>57</v>
-      </c>
-      <c r="C142">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>58</v>
-      </c>
-      <c r="C143">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>57</v>
-      </c>
-      <c r="C144">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>57</v>
-      </c>
-      <c r="C145">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>56</v>
-      </c>
-      <c r="C146">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>57</v>
-      </c>
-      <c r="C147">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>57</v>
-      </c>
-      <c r="C148">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>56</v>
-      </c>
-      <c r="C149">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>57</v>
-      </c>
-      <c r="C150">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>57</v>
-      </c>
-      <c r="C151">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>58</v>
-      </c>
-      <c r="C152">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>57</v>
-      </c>
-      <c r="C153">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>57</v>
-      </c>
-      <c r="C154">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>58</v>
-      </c>
-      <c r="C155">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>57</v>
-      </c>
-      <c r="C156">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>57</v>
-      </c>
-      <c r="C157">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>57</v>
-      </c>
-      <c r="C158">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>57</v>
-      </c>
-      <c r="C159">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>57</v>
-      </c>
-      <c r="C160">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>57</v>
-      </c>
-      <c r="C161">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>57</v>
-      </c>
-      <c r="C162">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>56</v>
-      </c>
-      <c r="C163">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>56</v>
-      </c>
-      <c r="C164">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>57</v>
-      </c>
-      <c r="C165">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>56</v>
-      </c>
-      <c r="C166">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>57</v>
-      </c>
-      <c r="C167">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>57</v>
-      </c>
-      <c r="C168">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>56</v>
-      </c>
-      <c r="C169">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>57</v>
-      </c>
-      <c r="C170">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>56</v>
-      </c>
-      <c r="C171">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>56</v>
-      </c>
-      <c r="C172">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>57</v>
-      </c>
-      <c r="C173">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>56</v>
-      </c>
-      <c r="C174">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>56</v>
-      </c>
-      <c r="C175">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>56</v>
-      </c>
-      <c r="C176">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>56</v>
-      </c>
-      <c r="C177">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>56</v>
-      </c>
-      <c r="C178">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>56</v>
-      </c>
-      <c r="C179">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>56</v>
-      </c>
-      <c r="C180">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>56</v>
-      </c>
-      <c r="C181">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>55</v>
-      </c>
-      <c r="C182">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>56</v>
-      </c>
-      <c r="C183">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>56</v>
-      </c>
-      <c r="C184">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>55</v>
-      </c>
-      <c r="C185">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>56</v>
-      </c>
-      <c r="C186">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>56</v>
-      </c>
-      <c r="C187">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>56</v>
-      </c>
-      <c r="C188">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>54</v>
-      </c>
-      <c r="C189">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>56</v>
-      </c>
-      <c r="C190">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>56</v>
-      </c>
-      <c r="C191">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>56</v>
-      </c>
-      <c r="C192">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>55</v>
-      </c>
-      <c r="C193">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>56</v>
-      </c>
-      <c r="C194">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>55</v>
-      </c>
-      <c r="C195">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>54</v>
-      </c>
-      <c r="C196">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>54</v>
-      </c>
-      <c r="C197">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>56</v>
-      </c>
-      <c r="C198">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>55</v>
-      </c>
-      <c r="C199">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>54</v>
-      </c>
-      <c r="C200">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>54</v>
-      </c>
-      <c r="C201">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>55</v>
-      </c>
-      <c r="C202">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>54</v>
-      </c>
-      <c r="C203">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>54</v>
-      </c>
-      <c r="C204">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>54</v>
-      </c>
-      <c r="C205">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>55</v>
-      </c>
-      <c r="C206">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>54</v>
-      </c>
-      <c r="C207">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>54</v>
-      </c>
-      <c r="C208">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>55</v>
-      </c>
-      <c r="C209">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>52</v>
-      </c>
-      <c r="C210">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>53</v>
-      </c>
-      <c r="C211">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>55</v>
-      </c>
-      <c r="C212">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>55</v>
-      </c>
-      <c r="C213">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>54</v>
-      </c>
-      <c r="C214">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>54</v>
-      </c>
-      <c r="C215">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>55</v>
-      </c>
-      <c r="C216">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>56</v>
-      </c>
-      <c r="C217">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>56</v>
-      </c>
-      <c r="C218">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>56</v>
-      </c>
-      <c r="C219">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>54</v>
-      </c>
-      <c r="C220">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>56</v>
-      </c>
-      <c r="C221">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>54</v>
-      </c>
-      <c r="C222">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>56</v>
-      </c>
-      <c r="C223">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>54</v>
-      </c>
-      <c r="C224">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>56</v>
-      </c>
-      <c r="C225">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>56</v>
-      </c>
-      <c r="C226">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>55</v>
-      </c>
-      <c r="C227">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>56</v>
-      </c>
-      <c r="C228">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>56</v>
-      </c>
-      <c r="C229">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>55</v>
-      </c>
-      <c r="C230">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>54</v>
-      </c>
-      <c r="C231">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>56</v>
-      </c>
-      <c r="C232">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>55</v>
-      </c>
-      <c r="C233">
         <v>56</v>
       </c>
     </row>
